--- a/public/cohort/fileExcel/xlsxIN/NASK1 PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxIN/NASK1 PTA en onderwijsprogramma.xlsx
@@ -1,25 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24206"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <workbookProtection lockRevision="false" lockStructure="true" lockWindows="false"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_7E6DF90998162CEF123D50000F6C689C6D3495CA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E00167C6-4F22-4A75-98DD-FF87E21676CF}"/>
+  <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="instellingen" sheetId="1" r:id="rId4"/>
-    <sheet name="instructie" sheetId="2" r:id="rId5"/>
-    <sheet name="M 2020" sheetId="3" r:id="rId6"/>
-    <sheet name="M 2019" sheetId="4" r:id="rId7"/>
+    <sheet name="instellingen" sheetId="1" r:id="rId1"/>
+    <sheet name="instructie" sheetId="2" r:id="rId2"/>
+    <sheet name="M 2020" sheetId="3" r:id="rId3"/>
+    <sheet name="M 2019" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="86">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -98,27 +109,20 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="Segoe UI"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFFFFFF"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
       <t xml:space="preserve">INSTRUCTIE </t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="Segoe UI"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFFFFFF"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
-      <t xml:space="preserve">graag uw aandacht voor het volgende:</t>
+      <t>graag uw aandacht voor het volgende:</t>
     </r>
   </si>
   <si>
@@ -133,195 +137,139 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Segoe UI"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
-      <t xml:space="preserve">A 2019</t>
+      <t>A 2019</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Segoe UI"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
       <t xml:space="preserve"> of </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Segoe UI"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
-      <t xml:space="preserve">H 2021</t>
+      <t>H 2021</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Segoe UI"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
       <t xml:space="preserve">. Dat jaartal slaat op het kalenderjaar waarin een groep start met het schoolexamen (gerekend vanaf mavo-3, havo-4 of VWO-4). Voor </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Segoe UI"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
-      <t xml:space="preserve">A 2019</t>
+      <t>A 2019</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Segoe UI"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
       <t xml:space="preserve"> gaat het dus om de atheneumjaarlaag die in het schooljaar </t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Segoe UI"/>
-        <b val="false"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
-      <t xml:space="preserve">2019-2020</t>
+      <t>2019-2020</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Segoe UI"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
       <t xml:space="preserve"> in klas 4 zat, in </t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Segoe UI"/>
-        <b val="false"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
-      <t xml:space="preserve">2020-2021</t>
+      <t>2020-2021</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Segoe UI"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
       <t xml:space="preserve"> in klas 5 en in </t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Segoe UI"/>
-        <b val="false"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
-      <t xml:space="preserve">2021-2022</t>
+      <t>2021-2022</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Segoe UI"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
       <t xml:space="preserve"> in klas 6. Het volledige </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Segoe UI"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
-      <t xml:space="preserve">cohort</t>
+      <t>cohort</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Segoe UI"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
       <t xml:space="preserve"> is dan de periode 2019-2022. Het betreft hier dus de </t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Segoe UI"/>
-        <b val="false"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
-      <t xml:space="preserve">huidige vwo-5</t>
+      <t>huidige vwo-5</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Segoe UI"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
-      <t xml:space="preserve">. Als je klikt op een tabblad wordt de bijbehorende groep vermeld.</t>
+      <t>. Als je klikt op een tabblad wordt de bijbehorende groep vermeld.</t>
     </r>
   </si>
   <si>
@@ -333,85 +281,61 @@
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Segoe UI"/>
-        <b val="false"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
-      <t xml:space="preserve">huidige vwo-5</t>
+      <t>huidige vwo-5</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Segoe UI"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
       <t xml:space="preserve"> liggen de leerjaren 4 en 5 van het PTA al achter ons. Daarom zijn de bijbehorende velden geblokkeerd. Wij hebben alle informatie van het huidige schooljaar overgenomen in dit nieuwe bestand. </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF5B9BD5"/>
         <rFont val="Segoe UI"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF5B9BD5"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
-      <t xml:space="preserve">Wil je controleren of de gegevens van het huidige schooljaar juist zijn?</t>
+      <t>Wil je controleren of de gegevens van het huidige schooljaar juist zijn?</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Segoe UI"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Segoe UI"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
       <t xml:space="preserve">Klopt er iets niet? Stuur dan een mailtje naar VNR. Velden voor het komende schooljaar zijn wel beschrijfbaar. Hier vul je het PTA verder in. Net als vorig jaar verwachten we het </t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Segoe UI"/>
-        <b val="false"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
-      <t xml:space="preserve">volledige onderwijsprogramma</t>
+      <t>volledige onderwijsprogramma</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Segoe UI"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
       <t xml:space="preserve"> voor een leerlaag, dus ook de proefwerken en andere opdrachten die niet voor het schoolexamen gelden. Als service hebben we het cohortjaar dat je voor dit schooljaar had ingevuld gekopieerd naar het PTA voor de nieuwe groep in de hoop dat dit jullie werk bespaard.</t>
     </r>
@@ -419,27 +343,20 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="Segoe UI"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFFFFFF"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
       <t xml:space="preserve">HEEL BELANGRIJK: </t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="Segoe UI"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFFFFFF"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
-      <t xml:space="preserve">do's &amp; don'ts</t>
+      <t>do's &amp; don'ts</t>
     </r>
   </si>
   <si>
@@ -448,75 +365,54 @@
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Segoe UI"/>
-        <b val="false"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
-      <t xml:space="preserve">afwijkende invoer</t>
+      <t>afwijkende invoer</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Segoe UI"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
       <t xml:space="preserve"> in het Excelbestand, niet volledig ingevulde gegevens en niet kloppende gegevens. Allereerst: Open dit bestand niet in een verouderde Excel-versie. Openen hem op je schoollaptop of een werkstation op school </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Segoe UI"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
-      <t xml:space="preserve">vanuit Teams</t>
+      <t>vanuit Teams</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Segoe UI"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
       <t xml:space="preserve">. Download het bestand dus </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Segoe UI"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
-      <t xml:space="preserve">niet</t>
+      <t>niet</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Segoe UI"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
-      <t xml:space="preserve">. Dit leidt tot ongewenste dubbelingen en inconsistentie. Open in de Excel-applicatie kan gewoon, maar dan wel vanuit Teams. Let daarnaast bij de over op de volgende punten:</t>
+      <t>. Dit leidt tot ongewenste dubbelingen en inconsistentie. Open in de Excel-applicatie kan gewoon, maar dan wel vanuit Teams. Let daarnaast bij de over op de volgende punten:</t>
     </r>
   </si>
   <si>
@@ -534,49 +430,35 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
         <rFont val="Segoe UI"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFC00000"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
-      <t xml:space="preserve">niet knippen</t>
+      <t>niet knippen</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Segoe UI"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
       <t xml:space="preserve"> (geen Ctrl-x). Daarmee verwijder je namelijk ook voor jou onzichtbare onderdelen. In plaats daarvan: het meest veilig is even overschrijven, maar als je toch wilt kopiëren: kies dan in het nieuwe veld voor het </t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Segoe UI"/>
-        <b val="false"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
-      <t xml:space="preserve">plakken van waarden</t>
+      <t>plakken van waarden</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Segoe UI"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
       <t xml:space="preserve"> en delete vervolgens de inhoud van de velden die moeten worden geleegd.</t>
     </r>
@@ -590,171 +472,123 @@
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Segoe UI"/>
-        <b val="false"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
-      <t xml:space="preserve">weging VD</t>
+      <t>weging VD</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Segoe UI"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Segoe UI"/>
-        <b val="false"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
-      <t xml:space="preserve">weging SE</t>
+      <t>weging SE</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Segoe UI"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
       <t xml:space="preserve"> en </t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Segoe UI"/>
-        <b val="false"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
-      <t xml:space="preserve">duur</t>
+      <t>duur</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Segoe UI"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
       <t xml:space="preserve"> zijn </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Segoe UI"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
-      <t xml:space="preserve">numeriek</t>
+      <t>numeriek</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Segoe UI"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
       <t xml:space="preserve">. Vul hier alleen getallen in (en dus niet dingen als </t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Segoe UI"/>
-        <b val="false"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
       <t xml:space="preserve">100 </t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
         <rFont val="Segoe UI"/>
-        <b val="false"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FFC00000"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
-      <t xml:space="preserve">min</t>
+      <t>min</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Segoe UI"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Segoe UI"/>
-        <b val="false"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
-      <t xml:space="preserve">15</t>
+      <t>15</t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
         <rFont val="Segoe UI"/>
-        <b val="false"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FFC00000"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
-      <t xml:space="preserve">?</t>
+      <t>?</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Segoe UI"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
-      <t xml:space="preserve">, etc.)</t>
+      <t>, etc.)</t>
     </r>
   </si>
   <si>
@@ -763,49 +597,35 @@
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Segoe UI"/>
-        <b val="false"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
-      <t xml:space="preserve">dropdown</t>
+      <t>dropdown</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Segoe UI"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
       <t xml:space="preserve">-menu's. Gebruik deze voor de invoer. Dat klinkt als een open deur, maar: </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Segoe UI"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
-      <t xml:space="preserve">niet</t>
+      <t>niet</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Segoe UI"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
       </rPr>
       <t xml:space="preserve"> handmatig overschrijven!</t>
     </r>
@@ -937,145 +757,120 @@
     <t>NASK1/K/1, NASK1/K/2, NASK1/K/3, NASK1/K/8, NASK1/K/10, NASK1/K/11, NASK1/V/3, NASK1/V/4</t>
   </si>
   <si>
+    <t>Kracht en beweging (H11) (en herhaling H4 en H9)</t>
+  </si>
+  <si>
+    <t>NASK1/K/1, NASK1/K/2, NASK1/K/3, NASK1/K/9, NASK/V/1, NASK1/V/3, NASK1/V/4</t>
+  </si>
+  <si>
+    <t>De BINAS VMBO-KGT is bij alle schriftelijke toetsen een toegestaan hulpmiddel, tenzij anders vermeld bij de toets.</t>
+  </si>
+  <si>
     <t>Kracht en beweging (H11)</t>
-  </si>
-  <si>
-    <t>NASK1/K/1, NASK1/K/2, NASK1/K/3, NASK1/K/9, NASK/V/1, NASK1/V/3, NASK1/V/4</t>
-  </si>
-  <si>
-    <t>De BINAS VMBO-KGT is bij alle schriftelijke toetsen een toegestaan hulpmiddel, tenzij anders vermeld bij de toets.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FFD8D8D8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="16"/>
       <color rgb="FF44546A"/>
       <name val="Segoe UI"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Segoe UI"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Segoe UI"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="12"/>
       <color rgb="FFD8D8D8"/>
       <name val="Segoe UI"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="26"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="12"/>
       <color rgb="FFF2F2F2"/>
+      <name val="Segoe UI"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF5B9BD5"/>
+      <name val="Segoe UI"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Segoe UI"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
       <name val="Segoe UI"/>
     </font>
   </fonts>
@@ -1084,10 +879,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1157,7 +949,13 @@
     </fill>
   </fills>
   <borders count="6">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FFC00000"/>
@@ -1171,19 +969,27 @@
       <bottom style="medium">
         <color rgb="FFC00000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="hair">
         <color rgb="FFF2F2F2"/>
       </right>
+      <top/>
       <bottom style="hair">
         <color rgb="FFA9CD90"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="hair">
         <color rgb="FFA9CD90"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="hair">
@@ -1198,6 +1004,7 @@
       <bottom style="hair">
         <color rgb="FFA9CD90"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1212,338 +1019,267 @@
       <bottom style="thin">
         <color rgb="FFDEEAF6"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="63">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="22" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="22" fillId="3" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="6" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="6" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="7" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="8" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="9" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="10" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="11" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="1" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="7" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="false"/>
+    <xf numFmtId="1" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="7" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection locked="false"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="7" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="false"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="7" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection locked="false"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="8" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="false"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="8" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection locked="false"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="12" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="1" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="12" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="1" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="8" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection locked="false"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="1" fillId="7" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="false"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="1" fillId="8" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="false"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="10" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="7" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="10" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="8" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="10" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="7" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="1" fillId="7" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="7" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="7" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="1" fillId="8" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="8" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="8" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="false"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="20">
     <dxf>
-      <font/>
+      <font>
+        <sz val="10"/>
+        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF000000"/>
           <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
-      <alignment/>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF000000"/>
           <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
-      <alignment/>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF000000"/>
           <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
-      <alignment/>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF000000"/>
           <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
-      <alignment/>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF000000"/>
           <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
-      <alignment/>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF000000"/>
           <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
-      <alignment/>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF000000"/>
           <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
-      <alignment/>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF000000"/>
           <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
-      <alignment/>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF000000"/>
           <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
-      <alignment/>
-      <border/>
     </dxf>
     <dxf>
       <font>
@@ -1557,11 +1293,89 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-      <alignment/>
-      <border/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1851,17 +1665,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="10" zoomScaleNormal="10" showGridLines="true" showRowColHeaders="1">
+    <sheetView zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -1971,13 +1782,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:9" customHeight="1" ht="15.75">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="A10" s="22"/>
       <c r="B10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:9" customHeight="1" ht="15.75">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="A11" s="20"/>
       <c r="B11" t="s">
         <v>23</v>
@@ -1992,242 +1803,254 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WOf0LQsboE6wZUxhTrp6vWUPTX/PxW+vApAM6zdPOcGfqvqNuFNYmJEfEBPc31Vp+JEs0x9YELJOz7LGwIuUbA==" saltValue="ss5ASBCr8o3o1bhwu9U1Vw==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="true"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WOf0LQsboE6wZUxhTrp6vWUPTX/PxW+vApAM6zdPOcGfqvqNuFNYmJEfEBPc31Vp+JEs0x9YELJOz7LGwIuUbA==" saltValue="ss5ASBCr8o3o1bhwu9U1Vw==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="160" zoomScaleNormal="160" showGridLines="true" showRowColHeaders="1">
+    <sheetView topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="true" style="8"/>
-    <col min="2" max="2" width="95.140625" customWidth="true" style="8"/>
-    <col min="3" max="3" width="9.140625" customWidth="true" style="8"/>
+    <col min="1" max="1" width="3.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="95.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="B1" s="34" t="s">
+      <c r="A1" s="29"/>
+      <c r="B1" s="33" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" customHeight="1" ht="74.25">
-      <c r="B2" s="35" t="s">
+      <c r="C1" s="29"/>
+    </row>
+    <row r="2" spans="1:3" ht="74.25" customHeight="1">
+      <c r="A2" s="29"/>
+      <c r="B2" s="34" t="s">
         <v>26</v>
       </c>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="32" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="31" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" customHeight="1" ht="106.5">
-      <c r="B4" s="35" t="s">
+      <c r="C3" s="29"/>
+    </row>
+    <row r="4" spans="1:3" ht="106.5" customHeight="1">
+      <c r="A4" s="29"/>
+      <c r="B4" s="34" t="s">
         <v>28</v>
       </c>
+      <c r="C4" s="29"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="32" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="31" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" customHeight="1" ht="161.25">
-      <c r="B6" s="35" t="s">
+      <c r="C5" s="29"/>
+    </row>
+    <row r="6" spans="1:3" ht="161.25" customHeight="1">
+      <c r="A6" s="29"/>
+      <c r="B6" s="34" t="s">
         <v>30</v>
       </c>
+      <c r="C6" s="29"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" s="34" t="s">
+      <c r="A7" s="29"/>
+      <c r="B7" s="33" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" customHeight="1" ht="107.25">
-      <c r="B8" s="35" t="s">
+      <c r="C7" s="29"/>
+    </row>
+    <row r="8" spans="1:3" ht="107.25" customHeight="1">
+      <c r="A8" s="29"/>
+      <c r="B8" s="34" t="s">
         <v>32</v>
       </c>
+      <c r="C8" s="29"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="B9" s="32" t="s">
+      <c r="A9" s="29"/>
+      <c r="B9" s="31" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" customHeight="1" ht="34.5">
-      <c r="A10" s="31" t="s">
+      <c r="C9" s="29"/>
+    </row>
+    <row r="10" spans="1:3" ht="34.5" customHeight="1">
+      <c r="A10" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="32" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" customHeight="1" ht="67.5" s="29" customFormat="1">
-      <c r="A11" s="31" t="s">
+      <c r="C10" s="29"/>
+    </row>
+    <row r="11" spans="1:3" s="29" customFormat="1" ht="67.5" customHeight="1">
+      <c r="A11" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:3" customHeight="1" ht="51.75">
-      <c r="A12" s="31" t="s">
+    <row r="12" spans="1:3" ht="51.75" customHeight="1">
+      <c r="A12" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="32" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" customHeight="1" ht="34.5">
-      <c r="A13" s="31" t="s">
+      <c r="C12" s="29"/>
+    </row>
+    <row r="13" spans="1:3" ht="34.5" customHeight="1">
+      <c r="A13" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="32" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" customHeight="1" ht="34.5">
-      <c r="A14" s="31" t="s">
+      <c r="C13" s="29"/>
+    </row>
+    <row r="14" spans="1:3" ht="34.5" customHeight="1">
+      <c r="A14" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="37" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" customHeight="1" ht="25.5">
-      <c r="A15" s="31" t="s">
+      <c r="C14" s="29"/>
+    </row>
+    <row r="15" spans="1:3" ht="25.5" customHeight="1">
+      <c r="A15" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="37" t="s">
         <v>40</v>
       </c>
+      <c r="C15" s="29"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="B16" s="30"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="29"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" s="30"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="29"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="B18" s="30"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="29"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="B19" s="30"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="29"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="B20" s="30"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="29"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="B21" s="30"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="29"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="B22" s="30"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="29"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="B23" s="30"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="29"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="B24" s="30"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="29"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="B25" s="30"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="29"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="B26" s="30"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="29"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="B27" s="30"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="29"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="B28" s="30"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="29"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="B29" s="30"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="29"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="B30" s="30"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="29"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="B31" s="30"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="29"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="d3VswOBugDSEcxizlCATwXTFi6niRv28FXqfpcai5ufO11YVowrXNjWqvWMa6vNZE7UYAIjZmiJwrdm2DCGv8g==" saltValue="ZguTsVH23F+wBjJXMNYuDw==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="d3VswOBugDSEcxizlCATwXTFi6niRv28FXqfpcai5ufO11YVowrXNjWqvWMa6vNZE7UYAIjZmiJwrdm2DCGv8g==" saltValue="ZguTsVH23F+wBjJXMNYuDw==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AF38"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="F21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
-    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
-    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
-    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="6" max="6" width="9.140625" customWidth="true" style="37"/>
-    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
-    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
-    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
-    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
-    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
-    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
-    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
-    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
-    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
-    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
-    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
-    <col min="18" max="18" width="9.10" hidden="true" style="0"/>
-    <col min="19" max="19" width="9.10" hidden="true" style="0"/>
-    <col min="20" max="20" width="9.10" hidden="true" style="0"/>
-    <col min="21" max="21" width="9.10" hidden="true" style="0"/>
-    <col min="22" max="22" width="9.10" hidden="true" style="0"/>
-    <col min="23" max="23" width="9.10" hidden="true" style="0"/>
-    <col min="24" max="24" width="9.10" hidden="true" style="0"/>
-    <col min="25" max="25" width="9.10" hidden="true" style="0"/>
-    <col min="26" max="26" width="9.10" hidden="true" style="0"/>
-    <col min="27" max="27" width="9.10" hidden="true" style="0"/>
-    <col min="28" max="28" width="9.10" hidden="true" style="0"/>
-    <col min="29" max="29" width="9.10" hidden="true" style="0"/>
-    <col min="30" max="30" width="9.10" hidden="true" style="0"/>
-    <col min="31" max="31" width="9.10" hidden="true" style="0"/>
-    <col min="32" max="32" width="9.10" hidden="true" style="0"/>
+    <col min="1" max="1" width="18.28515625" style="9" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="7" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="9" hidden="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="7" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="36" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="64.7109375" style="8" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="32.7109375" style="8" customWidth="1"/>
+    <col min="12" max="14" width="9.140625" style="7" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="32.7109375" style="8" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="8" customWidth="1"/>
+    <col min="18" max="32" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -2236,68 +2059,68 @@
       <c r="C1" s="15"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="44" t="s">
+      <c r="F1" s="40"/>
+      <c r="G1" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-    </row>
-    <row r="2" spans="1:32" customHeight="1" ht="48">
+      <c r="H1" s="47"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+    </row>
+    <row r="2" spans="1:32" ht="48" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="43">
+      <c r="F2" s="41">
         <f>SUM(AF6:AF35)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="45" t="str">
-        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
+      <c r="G2" s="61" t="str">
+        <f ca="1">IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
         <v>Dit is het programma van de huidige M3 (cohort 2020 - 2021)</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-    </row>
-    <row r="3" spans="1:32" hidden="true">
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+    </row>
+    <row r="3" spans="1:32" hidden="1">
       <c r="A3" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-    </row>
-    <row r="4" spans="1:32" customHeight="1" ht="30" hidden="true">
+      <c r="F3" s="40"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+    </row>
+    <row r="4" spans="1:32" ht="30" hidden="1" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>45</v>
       </c>
@@ -2308,23 +2131,23 @@
         <v>47</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="47" t="str">
+      <c r="F4" s="40"/>
+      <c r="G4" s="44" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15," (schooljaar ",B7," - ",B7+1,")")</f>
         <v>NASK1 leerlaag M3 (schooljaar 2020 - 2021)</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-    </row>
-    <row r="5" spans="1:32" customHeight="1" ht="34.5" hidden="true">
+      <c r="H4" s="47"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+    </row>
+    <row r="5" spans="1:32" ht="34.5" hidden="1" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>48</v>
       </c>
@@ -2337,38 +2160,38 @@
       <c r="E5" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="48" t="s">
+      <c r="F5" s="40"/>
+      <c r="G5" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="48" t="s">
+      <c r="I5" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="48" t="s">
+      <c r="J5" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="53" t="s">
+      <c r="K5" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="L5" s="48" t="s">
+      <c r="L5" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="M5" s="48" t="s">
+      <c r="M5" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="N5" s="48" t="s">
+      <c r="N5" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="O5" s="48" t="s">
+      <c r="O5" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="P5" s="53" t="s">
+      <c r="P5" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="Q5" s="52"/>
+      <c r="Q5" s="47"/>
       <c r="R5" s="7" t="str">
         <f>G5</f>
         <v>periode</v>
@@ -2425,11 +2248,11 @@
         <f>P5</f>
         <v>verplichte SE-domeinen</v>
       </c>
-      <c r="AF5" s="36" t="s">
+      <c r="AF5" s="35" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:32" customHeight="1" ht="72" hidden="true">
+    <row r="6" spans="1:32" ht="72" hidden="1" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>61</v>
       </c>
@@ -2438,26 +2261,26 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="54"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="57"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="58"/>
-      <c r="O6" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="52"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="49"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="52"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="53"/>
+      <c r="O6" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="47"/>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -2514,12 +2337,12 @@
         <f>IF(AND(ISBLANK($P6),$M6=instellingen!$I$3),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AF6" s="8">
+      <c r="AF6" s="29">
         <f>SUM(R6:AE6)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" customHeight="1" ht="72" hidden="true">
+    <row r="7" spans="1:32" ht="72" hidden="1" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>63</v>
       </c>
@@ -2528,26 +2351,26 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="57"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="58"/>
-      <c r="O7" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="52"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="49"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="52"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="53"/>
+      <c r="O7" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="47"/>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -2604,12 +2427,12 @@
         <f>IF(AND(ISBLANK($P7),$M7=instellingen!$I$3),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AF7" s="8">
+      <c r="AF7" s="29">
         <f>SUM(R7:AE7)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" customHeight="1" ht="72" hidden="true">
+    <row r="8" spans="1:32" ht="72" hidden="1" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>64</v>
       </c>
@@ -2618,26 +2441,26 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="54"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="57"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="58"/>
-      <c r="O8" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="52"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="49"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="52"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="53"/>
+      <c r="O8" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="47"/>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -2694,12 +2517,12 @@
         <f>IF(AND(ISBLANK($P8),$M8=instellingen!$I$3),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AF8" s="8">
+      <c r="AF8" s="29">
         <f>SUM(R8:AE8)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" customHeight="1" ht="72" hidden="true">
+    <row r="9" spans="1:32" ht="72" hidden="1" customHeight="1">
       <c r="A9" s="9" t="s">
         <v>65</v>
       </c>
@@ -2709,26 +2532,26 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="54"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="57"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="58"/>
-      <c r="O9" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="52"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="49"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="52"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="53"/>
+      <c r="O9" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="47"/>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -2785,41 +2608,41 @@
         <f>IF(AND(ISBLANK($P9),$M9=instellingen!$I$3),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AF9" s="8">
+      <c r="AF9" s="29">
         <f>SUM(R9:AE9)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" customHeight="1" ht="72" hidden="true">
+    <row r="10" spans="1:32" ht="72" hidden="1" customHeight="1">
       <c r="A10" s="9" t="s">
         <v>66</v>
       </c>
       <c r="B10" s="6">
-        <f>NOW()</f>
-        <v>44346.429050926</v>
+        <f ca="1">NOW()</f>
+        <v>44361.877383680556</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="54"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="57"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="58"/>
-      <c r="O10" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="52"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="49"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="52"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="53"/>
+      <c r="O10" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="47"/>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -2876,41 +2699,41 @@
         <f>IF(AND(ISBLANK($P10),$M10=instellingen!$I$3),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AF10" s="8">
+      <c r="AF10" s="29">
         <f>SUM(R10:AE10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" customHeight="1" ht="72" hidden="true">
+    <row r="11" spans="1:32" ht="72" hidden="1" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>67</v>
       </c>
       <c r="B11" s="4">
-        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
+        <f ca="1">IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="54"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="57"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="58"/>
-      <c r="O11" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="52"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="49"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="52"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="53"/>
+      <c r="O11" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="47"/>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -2967,31 +2790,31 @@
         <f>IF(AND(ISBLANK($P11),$M11=instellingen!$I$3),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AF11" s="8">
+      <c r="AF11" s="29">
         <f>SUM(R11:AE11)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:32" hidden="true">
+    <row r="12" spans="1:32" hidden="1">
       <c r="A12" s="9" t="s">
         <v>68</v>
       </c>
       <c r="B12" s="4" t="str">
-        <f>CONCATENATE(B11," - ",B11+1)</f>
+        <f ca="1">CONCATENATE(B11," - ",B11+1)</f>
         <v>2020 - 2021</v>
       </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
@@ -3007,12 +2830,12 @@
       <c r="AD12" s="7"/>
       <c r="AE12" s="7"/>
     </row>
-    <row r="13" spans="1:32" hidden="true">
+    <row r="13" spans="1:32" hidden="1">
       <c r="A13" s="9" t="s">
         <v>69</v>
       </c>
       <c r="B13" s="4">
-        <f>B7-B11</f>
+        <f ca="1">B7-B11</f>
         <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -3021,21 +2844,21 @@
       <c r="D13" s="2">
         <v>700</v>
       </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="50" t="str">
+      <c r="F13" s="40"/>
+      <c r="G13" s="59" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  NASK1 leerlaag M3 (schooljaar 2020 - 2021)</v>
       </c>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
@@ -3051,26 +2874,26 @@
       <c r="AD13" s="7"/>
       <c r="AE13" s="7"/>
     </row>
-    <row r="14" spans="1:32" customHeight="1" ht="72" hidden="true">
+    <row r="14" spans="1:32" ht="72" hidden="1" customHeight="1">
       <c r="A14" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B14" s="7">
-        <f>B15+B11-B7</f>
+        <f ca="1">B15+B11-B7</f>
         <v>3</v>
       </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
@@ -3086,7 +2909,7 @@
       <c r="AD14" s="7"/>
       <c r="AE14" s="7"/>
     </row>
-    <row r="15" spans="1:32" hidden="true">
+    <row r="15" spans="1:32" hidden="1">
       <c r="A15" s="9" t="s">
         <v>71</v>
       </c>
@@ -3094,18 +2917,18 @@
         <f>IF(B6="M",3,4)</f>
         <v>3</v>
       </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
@@ -3121,26 +2944,26 @@
       <c r="AD15" s="7"/>
       <c r="AE15" s="7"/>
     </row>
-    <row r="16" spans="1:32" customHeight="1" ht="30.75">
+    <row r="16" spans="1:32" ht="30.75" customHeight="1">
       <c r="C16" s="9" t="s">
         <v>47</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="47" t="str">
+      <c r="F16" s="40"/>
+      <c r="G16" s="44" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+1," (schooljaar ",B7+1," - ",B7+2,")")</f>
         <v>NASK1 leerlaag M4 (schooljaar 2021 - 2022)</v>
       </c>
-      <c r="H16" s="52"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
@@ -3156,45 +2979,45 @@
       <c r="AD16" s="7"/>
       <c r="AE16" s="7"/>
     </row>
-    <row r="17" spans="1:32" customHeight="1" ht="34.5">
+    <row r="17" spans="3:32" ht="34.5" customHeight="1">
       <c r="D17" s="7" t="s">
         <v>49</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="48" t="s">
+      <c r="F17" s="40"/>
+      <c r="G17" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="53" t="s">
+      <c r="H17" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="48" t="s">
+      <c r="I17" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="48" t="s">
+      <c r="J17" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="K17" s="53" t="s">
+      <c r="K17" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="48" t="s">
+      <c r="L17" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="M17" s="48" t="s">
+      <c r="M17" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="N17" s="48" t="s">
+      <c r="N17" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="O17" s="48" t="s">
+      <c r="O17" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="P17" s="53" t="s">
+      <c r="P17" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="Q17" s="52"/>
+      <c r="Q17" s="47"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
@@ -3210,32 +3033,32 @@
       <c r="AD17" s="7"/>
       <c r="AE17" s="7"/>
     </row>
-    <row r="18" spans="1:32" customHeight="1" ht="72">
+    <row r="18" spans="3:32" ht="72" customHeight="1">
       <c r="D18" s="2">
         <v>879</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="42"/>
+      <c r="F18" s="40"/>
       <c r="G18" s="23">
         <v>1</v>
       </c>
       <c r="H18" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="I18" s="40">
+      <c r="I18" s="38">
         <v>2</v>
       </c>
       <c r="J18" s="25" t="s">
         <v>7</v>
       </c>
       <c r="K18" s="26"/>
-      <c r="L18" s="40">
+      <c r="L18" s="38">
         <v>100</v>
       </c>
       <c r="M18" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="N18" s="41">
+      <c r="N18" s="39">
         <v>2</v>
       </c>
       <c r="O18" s="27" t="s">
@@ -3244,7 +3067,7 @@
       <c r="P18" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="Q18" s="52"/>
+      <c r="Q18" s="47"/>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -3301,37 +3124,37 @@
         <f>IF(AND(ISBLANK($P18),$M18=instellingen!$I$3),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AF18" s="8">
+      <c r="AF18" s="29">
         <f>SUM(R18:AE18)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:32" customHeight="1" ht="72">
+    <row r="19" spans="3:32" ht="72" customHeight="1">
       <c r="D19" s="2">
         <v>880</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="42"/>
+      <c r="F19" s="40"/>
       <c r="G19" s="23">
         <v>1</v>
       </c>
       <c r="H19" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="40">
+      <c r="I19" s="38">
         <v>2</v>
       </c>
       <c r="J19" s="25" t="s">
         <v>7</v>
       </c>
       <c r="K19" s="26"/>
-      <c r="L19" s="40">
+      <c r="L19" s="38">
         <v>100</v>
       </c>
       <c r="M19" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="N19" s="41">
+      <c r="N19" s="39">
         <v>2</v>
       </c>
       <c r="O19" s="27" t="s">
@@ -3340,7 +3163,7 @@
       <c r="P19" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="Q19" s="52"/>
+      <c r="Q19" s="47"/>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -3397,37 +3220,37 @@
         <f>IF(AND(ISBLANK($P19),$M19=instellingen!$I$3),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AF19" s="8">
+      <c r="AF19" s="29">
         <f>SUM(R19:AE19)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:32" customHeight="1" ht="72">
+    <row r="20" spans="3:32" ht="72" customHeight="1">
       <c r="D20" s="2">
         <v>881</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="42"/>
+      <c r="F20" s="40"/>
       <c r="G20" s="23">
         <v>2</v>
       </c>
       <c r="H20" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="I20" s="40">
+      <c r="I20" s="38">
         <v>2</v>
       </c>
       <c r="J20" s="25" t="s">
         <v>7</v>
       </c>
       <c r="K20" s="26"/>
-      <c r="L20" s="40">
+      <c r="L20" s="38">
         <v>100</v>
       </c>
       <c r="M20" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="N20" s="41">
+      <c r="N20" s="39">
         <v>2</v>
       </c>
       <c r="O20" s="27" t="s">
@@ -3436,7 +3259,7 @@
       <c r="P20" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="Q20" s="52"/>
+      <c r="Q20" s="47"/>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -3493,37 +3316,37 @@
         <f>IF(AND(ISBLANK($P20),$M20=instellingen!$I$3),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AF20" s="8">
+      <c r="AF20" s="29">
         <f>SUM(R20:AE20)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:32" customHeight="1" ht="72">
+    <row r="21" spans="3:32" ht="72" customHeight="1">
       <c r="D21" s="2">
         <v>882</v>
       </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="42"/>
+      <c r="F21" s="40"/>
       <c r="G21" s="23">
         <v>2</v>
       </c>
       <c r="H21" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="I21" s="40">
+      <c r="I21" s="38">
         <v>2</v>
       </c>
       <c r="J21" s="25" t="s">
         <v>7</v>
       </c>
       <c r="K21" s="26"/>
-      <c r="L21" s="40">
+      <c r="L21" s="38">
         <v>100</v>
       </c>
       <c r="M21" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="41">
+      <c r="N21" s="39">
         <v>2</v>
       </c>
       <c r="O21" s="27" t="s">
@@ -3532,7 +3355,7 @@
       <c r="P21" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="Q21" s="52"/>
+      <c r="Q21" s="47"/>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -3589,37 +3412,37 @@
         <f>IF(AND(ISBLANK($P21),$M21=instellingen!$I$3),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AF21" s="8">
+      <c r="AF21" s="29">
         <f>SUM(R21:AE21)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:32" customHeight="1" ht="72">
+    <row r="22" spans="3:32" ht="72" customHeight="1">
       <c r="D22" s="2">
         <v>883</v>
       </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="42"/>
+      <c r="F22" s="40"/>
       <c r="G22" s="23">
         <v>3</v>
       </c>
       <c r="H22" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="I22" s="40">
+      <c r="I22" s="38">
         <v>2</v>
       </c>
       <c r="J22" s="25" t="s">
         <v>7</v>
       </c>
       <c r="K22" s="26"/>
-      <c r="L22" s="40">
+      <c r="L22" s="38">
         <v>100</v>
       </c>
       <c r="M22" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="41">
+      <c r="N22" s="39">
         <v>2</v>
       </c>
       <c r="O22" s="27" t="s">
@@ -3628,7 +3451,7 @@
       <c r="P22" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="Q22" s="52"/>
+      <c r="Q22" s="47"/>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -3685,37 +3508,37 @@
         <f>IF(AND(ISBLANK($P22),$M22=instellingen!$I$3),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AF22" s="8">
+      <c r="AF22" s="29">
         <f>SUM(R22:AE22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:32" customHeight="1" ht="72">
+    <row r="23" spans="3:32" ht="72" customHeight="1">
       <c r="D23" s="2">
         <v>884</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="42"/>
+      <c r="F23" s="40"/>
       <c r="G23" s="23">
         <v>3</v>
       </c>
       <c r="H23" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="I23" s="40">
+      <c r="I23" s="38">
         <v>2</v>
       </c>
       <c r="J23" s="25" t="s">
         <v>7</v>
       </c>
       <c r="K23" s="26"/>
-      <c r="L23" s="40">
+      <c r="L23" s="38">
         <v>100</v>
       </c>
       <c r="M23" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="N23" s="41">
+      <c r="N23" s="39">
         <v>2</v>
       </c>
       <c r="O23" s="27" t="s">
@@ -3724,7 +3547,7 @@
       <c r="P23" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="Q23" s="52"/>
+      <c r="Q23" s="47"/>
       <c r="R23" s="7">
         <f>IF(OR(AND($G23&lt;&gt;instellingen!$G$2,ISBLANK($H23)),AND($G23=instellingen!$G$2,$H23&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -3781,24 +3604,24 @@
         <f>IF(AND(ISBLANK($P23),$M23=instellingen!$I$3),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AF23" s="8">
+      <c r="AF23" s="29">
         <f>SUM(R23:AE23)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:32">
-      <c r="F24" s="42"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
+    <row r="24" spans="3:32">
+      <c r="F24" s="40"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
@@ -3814,28 +3637,28 @@
       <c r="AD24" s="7"/>
       <c r="AE24" s="7"/>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="3:32" ht="17.25">
       <c r="C25" s="9" t="s">
         <v>47</v>
       </c>
       <c r="D25" s="2">
         <v>701</v>
       </c>
-      <c r="F25" s="42"/>
-      <c r="G25" s="50" t="str">
+      <c r="F25" s="40"/>
+      <c r="G25" s="59" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  NASK1 leerlaag M4 (schooljaar 2021 - 2022)</v>
       </c>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
@@ -3851,19 +3674,21 @@
       <c r="AD25" s="7"/>
       <c r="AE25" s="7"/>
     </row>
-    <row r="26" spans="1:32" customHeight="1" ht="72">
-      <c r="F26" s="42"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="62"/>
-      <c r="O26" s="62"/>
-      <c r="P26" s="63"/>
-      <c r="Q26" s="52"/>
+    <row r="26" spans="3:32" ht="72" customHeight="1">
+      <c r="F26" s="40"/>
+      <c r="G26" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="47"/>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
@@ -3879,19 +3704,19 @@
       <c r="AD26" s="7"/>
       <c r="AE26" s="7"/>
     </row>
-    <row r="27" spans="1:32">
-      <c r="F27" s="42"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
+    <row r="27" spans="3:32" ht="17.25">
+      <c r="F27" s="40"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="47"/>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
@@ -3907,26 +3732,26 @@
       <c r="AD27" s="7"/>
       <c r="AE27" s="7"/>
     </row>
-    <row r="28" spans="1:32" customHeight="1" ht="30.75" hidden="true">
+    <row r="28" spans="3:32" ht="30.75" hidden="1" customHeight="1">
       <c r="C28" s="9" t="s">
         <v>47</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="47" t="str">
+      <c r="F28" s="40"/>
+      <c r="G28" s="44" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+2," (schooljaar ",B7+2," - ",B9,")")</f>
         <v>NASK1 leerlaag M5 (schooljaar 2022 - 2021)</v>
       </c>
-      <c r="H28" s="52"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="47"/>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
@@ -3942,45 +3767,45 @@
       <c r="AD28" s="7"/>
       <c r="AE28" s="7"/>
     </row>
-    <row r="29" spans="1:32" customHeight="1" ht="34.5" hidden="true">
+    <row r="29" spans="3:32" ht="34.5" hidden="1" customHeight="1">
       <c r="D29" s="7" t="s">
         <v>49</v>
       </c>
       <c r="E29" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="42"/>
-      <c r="G29" s="48" t="s">
+      <c r="F29" s="40"/>
+      <c r="G29" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H29" s="53" t="s">
+      <c r="H29" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="I29" s="48" t="s">
+      <c r="I29" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="J29" s="48" t="s">
+      <c r="J29" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="K29" s="53" t="s">
+      <c r="K29" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="L29" s="48" t="s">
+      <c r="L29" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="M29" s="48" t="s">
+      <c r="M29" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="N29" s="48" t="s">
+      <c r="N29" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="O29" s="48" t="s">
+      <c r="O29" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="P29" s="53" t="s">
+      <c r="P29" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="Q29" s="52"/>
+      <c r="Q29" s="47"/>
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
@@ -3996,29 +3821,29 @@
       <c r="AD29" s="7"/>
       <c r="AE29" s="7"/>
     </row>
-    <row r="30" spans="1:32" customHeight="1" ht="72" hidden="true">
+    <row r="30" spans="3:32" ht="72" hidden="1" customHeight="1">
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="54"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30" s="57"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="58"/>
-      <c r="O30" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="61"/>
-      <c r="Q30" s="52"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="49"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="52"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="53"/>
+      <c r="O30" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="56"/>
+      <c r="Q30" s="47"/>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -4075,34 +3900,34 @@
         <f>IF(AND(ISBLANK($P30),$M30=instellingen!$I$3),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AF30" s="8">
+      <c r="AF30" s="29">
         <f>SUM(R30:AE30)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:32" customHeight="1" ht="72" hidden="true">
+    <row r="31" spans="3:32" ht="72" hidden="1" customHeight="1">
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="54"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="57"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="58"/>
-      <c r="O31" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="61"/>
-      <c r="Q31" s="52"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="49"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="52"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="53"/>
+      <c r="O31" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="47"/>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -4159,34 +3984,34 @@
         <f>IF(AND(ISBLANK($P31),$M31=instellingen!$I$3),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AF31" s="8">
+      <c r="AF31" s="29">
         <f>SUM(R31:AE31)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:32" customHeight="1" ht="72" hidden="true">
+    <row r="32" spans="3:32" ht="72" hidden="1" customHeight="1">
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="54"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="57"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="58"/>
-      <c r="O32" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="61"/>
-      <c r="Q32" s="52"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="49"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="52"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="53"/>
+      <c r="O32" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="47"/>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -4243,34 +4068,34 @@
         <f>IF(AND(ISBLANK($P32),$M32=instellingen!$I$3),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AF32" s="8">
+      <c r="AF32" s="29">
         <f>SUM(R32:AE32)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:32" customHeight="1" ht="72" hidden="true">
+    <row r="33" spans="3:32" ht="72" hidden="1" customHeight="1">
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="54"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="57"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="58"/>
-      <c r="O33" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="61"/>
-      <c r="Q33" s="52"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="49"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="52"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="53"/>
+      <c r="O33" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="56"/>
+      <c r="Q33" s="47"/>
       <c r="R33" s="7">
         <f>IF(OR(AND($G33&lt;&gt;instellingen!$G$2,ISBLANK($H33)),AND($G33=instellingen!$G$2,$H33&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -4327,34 +4152,34 @@
         <f>IF(AND(ISBLANK($P33),$M33=instellingen!$I$3),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AF33" s="8">
+      <c r="AF33" s="29">
         <f>SUM(R33:AE33)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:32" customHeight="1" ht="72" hidden="true">
+    <row r="34" spans="3:32" ht="72" hidden="1" customHeight="1">
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="54"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="57"/>
-      <c r="L34" s="55"/>
-      <c r="M34" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" s="58"/>
-      <c r="O34" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P34" s="61"/>
-      <c r="Q34" s="52"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="49"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="52"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="53"/>
+      <c r="O34" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="56"/>
+      <c r="Q34" s="47"/>
       <c r="R34" s="7">
         <f>IF(OR(AND($G34&lt;&gt;instellingen!$G$2,ISBLANK($H34)),AND($G34=instellingen!$G$2,$H34&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -4411,34 +4236,34 @@
         <f>IF(AND(ISBLANK($P34),$M34=instellingen!$I$3),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AF34" s="8">
+      <c r="AF34" s="29">
         <f>SUM(R34:AE34)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:32" customHeight="1" ht="72" hidden="true">
+    <row r="35" spans="3:32" ht="72" hidden="1" customHeight="1">
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="54"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="57"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="58"/>
-      <c r="O35" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="61"/>
-      <c r="Q35" s="52"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="49"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="52"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="53"/>
+      <c r="O35" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="56"/>
+      <c r="Q35" s="47"/>
       <c r="R35" s="7">
         <f>IF(OR(AND($G35&lt;&gt;instellingen!$G$2,ISBLANK($H35)),AND($G35=instellingen!$G$2,$H35&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -4495,63 +4320,63 @@
         <f>IF(AND(ISBLANK($P35),$M35=instellingen!$I$3),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AF35" s="8">
+      <c r="AF35" s="29">
         <f>SUM(R35:AE35)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:32" hidden="true">
-      <c r="F36" s="42"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="46"/>
-      <c r="P36" s="52"/>
-      <c r="Q36" s="52"/>
-    </row>
-    <row r="37" spans="1:32" hidden="true">
+    <row r="36" spans="3:32" hidden="1">
+      <c r="F36" s="40"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="47"/>
+      <c r="Q36" s="47"/>
+    </row>
+    <row r="37" spans="3:32" hidden="1">
       <c r="C37" s="9" t="s">
         <v>47</v>
       </c>
       <c r="D37" s="2"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="50" t="str">
+      <c r="F37" s="40"/>
+      <c r="G37" s="59" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  NASK1 leerlaag M5 (schooljaar 2022 - 2021)</v>
       </c>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="46"/>
-      <c r="O37" s="46"/>
-      <c r="P37" s="52"/>
-      <c r="Q37" s="52"/>
-    </row>
-    <row r="38" spans="1:32" customHeight="1" ht="72" hidden="true">
-      <c r="F38" s="42"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="51"/>
-      <c r="N38" s="46"/>
-      <c r="O38" s="46"/>
-      <c r="P38" s="52"/>
-      <c r="Q38" s="52"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="59"/>
+      <c r="M37" s="59"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="47"/>
+      <c r="Q37" s="47"/>
+    </row>
+    <row r="38" spans="3:32" ht="72" hidden="1" customHeight="1">
+      <c r="F38" s="40"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="60"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="47"/>
+      <c r="Q38" s="47"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="cNb6knNTpaV7D1mf7Iu/lgYj9kXwfXjOtkhAQEWDHFVwb8oqXWtXWieJjx8ezWiH4NKu/Y6gcKPG2XrRP9UI3Q==" saltValue="htMrYuTnwu2LK4yRq/X2Wg==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
+  <sheetProtection algorithmName="SHA-512" hashValue="cNb6knNTpaV7D1mf7Iu/lgYj9kXwfXjOtkhAQEWDHFVwb8oqXWtXWieJjx8ezWiH4NKu/Y6gcKPG2XrRP9UI3Q==" saltValue="htMrYuTnwu2LK4yRq/X2Wg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="7">
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
     <mergeCell ref="G14:M14"/>
@@ -4561,189 +4386,115 @@
     <mergeCell ref="G26:M26"/>
   </mergeCells>
   <conditionalFormatting sqref="J6:J11">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="19" priority="1">
       <formula>ISBLANK($J6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:J23">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="18" priority="2">
       <formula>ISBLANK($J18)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30:J35">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="17" priority="3">
       <formula>ISBLANK($J30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:M11">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="16" priority="4">
       <formula>ISBLANK($M6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M18:M23">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="15" priority="5">
       <formula>ISBLANK($M18)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M30:M35">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="14" priority="6">
       <formula>ISBLANK($M30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:O11">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="13" priority="7">
       <formula>ISBLANK($O6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O18:O23">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="12" priority="8">
       <formula>ISBLANK($O18)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O30:O35">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="11" priority="9">
       <formula>ISBLANK($O30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6:AE35">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="21">
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="I6:I11">
+  <dataValidations count="1">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I11 N30:N35 N18:N23 N6:N11 L30:L35 L18:L23 L6:L11 I30:I35 I18:I23" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>0</formula1>
       <formula2>300</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="I18:I23">
-      <formula1>0</formula1>
-      <formula2>300</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="I30:I35">
-      <formula1>0</formula1>
-      <formula2>300</formula2>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="L6:L11">
-      <formula1>0</formula1>
-      <formula2>300</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="L18:L23">
-      <formula1>0</formula1>
-      <formula2>300</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="L30:L35">
-      <formula1>0</formula1>
-      <formula2>300</formula2>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="N6:N11">
-      <formula1>0</formula1>
-      <formula2>300</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="N18:N23">
-      <formula1>0</formula1>
-      <formula2>300</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="N30:N35">
-      <formula1>0</formula1>
-      <formula2>300</formula2>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
   </dataValidations>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" xr:uid="{00000000-0002-0000-0200-000000000000}">
+          <x14:formula1>
+            <xm:f>instellingen!$G$2:$G$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>G6:G11 G30:G35 G18:G23</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" xr:uid="{00000000-0002-0000-0200-000006000000}">
+          <x14:formula1>
+            <xm:f>instellingen!$H$2:$H$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>J6:J11 J30:J35 J18:J23</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" xr:uid="{00000000-0002-0000-0200-00000C000000}">
+          <x14:formula1>
+            <xm:f>instellingen!$I$2:$I$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>M6:M11 O30:O35 O18:O23 O6:O11 M30:M35 M18:M23</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AF38"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q38" sqref="Q38"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="F22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26:M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
-    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
-    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
-    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="6" max="6" width="9.140625" customWidth="true" style="37"/>
-    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
-    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
-    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
-    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
-    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
-    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
-    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
-    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
-    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
-    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
-    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
-    <col min="18" max="18" width="9.10" hidden="true" style="0"/>
-    <col min="19" max="19" width="9.10" hidden="true" style="0"/>
-    <col min="20" max="20" width="9.10" hidden="true" style="0"/>
-    <col min="21" max="21" width="9.10" hidden="true" style="0"/>
-    <col min="22" max="22" width="9.10" hidden="true" style="0"/>
-    <col min="23" max="23" width="9.10" hidden="true" style="0"/>
-    <col min="24" max="24" width="9.10" hidden="true" style="0"/>
-    <col min="25" max="25" width="9.10" hidden="true" style="0"/>
-    <col min="26" max="26" width="9.10" hidden="true" style="0"/>
-    <col min="27" max="27" width="9.10" hidden="true" style="0"/>
-    <col min="28" max="28" width="9.10" hidden="true" style="0"/>
-    <col min="29" max="29" width="9.10" hidden="true" style="0"/>
-    <col min="30" max="30" width="9.10" hidden="true" style="0"/>
-    <col min="31" max="31" width="9.10" hidden="true" style="0"/>
-    <col min="32" max="32" width="9.10" hidden="true" style="0"/>
+    <col min="1" max="1" width="18.28515625" style="9" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="7" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="9" hidden="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="7" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="36" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="64.7109375" style="8" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="32.7109375" style="8" customWidth="1"/>
+    <col min="12" max="14" width="9.140625" style="7" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="32.7109375" style="8" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="8" customWidth="1"/>
+    <col min="18" max="32" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -4752,68 +4503,68 @@
       <c r="C1" s="15"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="44" t="s">
+      <c r="F1" s="40"/>
+      <c r="G1" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-    </row>
-    <row r="2" spans="1:32" customHeight="1" ht="48">
+      <c r="H1" s="47"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+    </row>
+    <row r="2" spans="1:32" ht="48" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="43">
+      <c r="F2" s="41">
         <f>SUM(AF6:AF35)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="45" t="str">
-        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
+      <c r="G2" s="61" t="str">
+        <f ca="1">IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
         <v>Dit is het programma van de huidige M4 (cohort 2019 - 2020)</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-    </row>
-    <row r="3" spans="1:32" hidden="true">
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+    </row>
+    <row r="3" spans="1:32" hidden="1">
       <c r="A3" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-    </row>
-    <row r="4" spans="1:32" customHeight="1" ht="30" hidden="true">
+      <c r="F3" s="40"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+    </row>
+    <row r="4" spans="1:32" ht="30" hidden="1" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>45</v>
       </c>
@@ -4824,23 +4575,23 @@
         <v>47</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="47" t="str">
+      <c r="F4" s="40"/>
+      <c r="G4" s="44" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15," (schooljaar ",B7," - ",B7+1,")")</f>
         <v>NASK1 leerlaag M3 (schooljaar 2019 - 2020)</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-    </row>
-    <row r="5" spans="1:32" customHeight="1" ht="34.5" hidden="true">
+      <c r="H4" s="47"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+    </row>
+    <row r="5" spans="1:32" ht="34.5" hidden="1" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>48</v>
       </c>
@@ -4853,38 +4604,38 @@
       <c r="E5" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="48" t="s">
+      <c r="F5" s="40"/>
+      <c r="G5" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="48" t="s">
+      <c r="I5" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="48" t="s">
+      <c r="J5" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="53" t="s">
+      <c r="K5" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="L5" s="48" t="s">
+      <c r="L5" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="M5" s="48" t="s">
+      <c r="M5" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="N5" s="48" t="s">
+      <c r="N5" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="O5" s="48" t="s">
+      <c r="O5" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="P5" s="53" t="s">
+      <c r="P5" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="Q5" s="52"/>
+      <c r="Q5" s="47"/>
       <c r="R5" s="7" t="str">
         <f>G5</f>
         <v>periode</v>
@@ -4941,11 +4692,11 @@
         <f>P5</f>
         <v>verplichte SE-domeinen</v>
       </c>
-      <c r="AF5" s="36" t="s">
+      <c r="AF5" s="35" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:32" customHeight="1" ht="72" hidden="true">
+    <row r="6" spans="1:32" ht="72" hidden="1" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>61</v>
       </c>
@@ -4954,26 +4705,26 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="54"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="57"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="58"/>
-      <c r="O6" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="52"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="49"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="52"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="53"/>
+      <c r="O6" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="47"/>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -5030,12 +4781,12 @@
         <f>IF(AND(ISBLANK($P6),$M6=instellingen!$I$3),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AF6" s="8">
+      <c r="AF6" s="29">
         <f>SUM(R6:AE6)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" customHeight="1" ht="72" hidden="true">
+    <row r="7" spans="1:32" ht="72" hidden="1" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>63</v>
       </c>
@@ -5044,26 +4795,26 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="57"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="58"/>
-      <c r="O7" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="52"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="49"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="52"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="53"/>
+      <c r="O7" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="47"/>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -5120,12 +4871,12 @@
         <f>IF(AND(ISBLANK($P7),$M7=instellingen!$I$3),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AF7" s="8">
+      <c r="AF7" s="29">
         <f>SUM(R7:AE7)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" customHeight="1" ht="72" hidden="true">
+    <row r="8" spans="1:32" ht="72" hidden="1" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>64</v>
       </c>
@@ -5134,26 +4885,26 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="54"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="57"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="58"/>
-      <c r="O8" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="52"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="49"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="52"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="53"/>
+      <c r="O8" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="47"/>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -5210,12 +4961,12 @@
         <f>IF(AND(ISBLANK($P8),$M8=instellingen!$I$3),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AF8" s="8">
+      <c r="AF8" s="29">
         <f>SUM(R8:AE8)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" customHeight="1" ht="72" hidden="true">
+    <row r="9" spans="1:32" ht="72" hidden="1" customHeight="1">
       <c r="A9" s="9" t="s">
         <v>65</v>
       </c>
@@ -5225,26 +4976,26 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="54"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="57"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="58"/>
-      <c r="O9" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="52"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="49"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="52"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="53"/>
+      <c r="O9" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="47"/>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -5301,41 +5052,41 @@
         <f>IF(AND(ISBLANK($P9),$M9=instellingen!$I$3),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AF9" s="8">
+      <c r="AF9" s="29">
         <f>SUM(R9:AE9)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" customHeight="1" ht="72" hidden="true">
+    <row r="10" spans="1:32" ht="72" hidden="1" customHeight="1">
       <c r="A10" s="9" t="s">
         <v>66</v>
       </c>
       <c r="B10" s="6">
-        <f>NOW()</f>
-        <v>44346.429050926</v>
+        <f ca="1">NOW()</f>
+        <v>44361.877383680556</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="54"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="57"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="58"/>
-      <c r="O10" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="52"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="49"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="52"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="53"/>
+      <c r="O10" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="47"/>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -5392,41 +5143,41 @@
         <f>IF(AND(ISBLANK($P10),$M10=instellingen!$I$3),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AF10" s="8">
+      <c r="AF10" s="29">
         <f>SUM(R10:AE10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" customHeight="1" ht="72" hidden="true">
+    <row r="11" spans="1:32" ht="72" hidden="1" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>67</v>
       </c>
       <c r="B11" s="4">
-        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
+        <f ca="1">IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="54"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="57"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="58"/>
-      <c r="O11" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="52"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="49"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="52"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="53"/>
+      <c r="O11" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="47"/>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -5483,31 +5234,31 @@
         <f>IF(AND(ISBLANK($P11),$M11=instellingen!$I$3),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AF11" s="8">
+      <c r="AF11" s="29">
         <f>SUM(R11:AE11)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:32" hidden="true">
+    <row r="12" spans="1:32" hidden="1">
       <c r="A12" s="9" t="s">
         <v>68</v>
       </c>
       <c r="B12" s="4" t="str">
-        <f>CONCATENATE(B11," - ",B11+1)</f>
+        <f ca="1">CONCATENATE(B11," - ",B11+1)</f>
         <v>2020 - 2021</v>
       </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
@@ -5523,12 +5274,12 @@
       <c r="AD12" s="7"/>
       <c r="AE12" s="7"/>
     </row>
-    <row r="13" spans="1:32" hidden="true">
+    <row r="13" spans="1:32" hidden="1">
       <c r="A13" s="9" t="s">
         <v>69</v>
       </c>
       <c r="B13" s="4">
-        <f>B7-B11</f>
+        <f ca="1">B7-B11</f>
         <v>-1</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -5537,21 +5288,21 @@
       <c r="D13" s="2">
         <v>121</v>
       </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="50" t="str">
+      <c r="F13" s="40"/>
+      <c r="G13" s="59" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  NASK1 leerlaag M3 (schooljaar 2019 - 2020)</v>
       </c>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
@@ -5567,26 +5318,26 @@
       <c r="AD13" s="7"/>
       <c r="AE13" s="7"/>
     </row>
-    <row r="14" spans="1:32" customHeight="1" ht="72" hidden="true">
+    <row r="14" spans="1:32" ht="72" hidden="1" customHeight="1">
       <c r="A14" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B14" s="7">
-        <f>B15+B11-B7</f>
+        <f ca="1">B15+B11-B7</f>
         <v>4</v>
       </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
@@ -5602,7 +5353,7 @@
       <c r="AD14" s="7"/>
       <c r="AE14" s="7"/>
     </row>
-    <row r="15" spans="1:32" hidden="true">
+    <row r="15" spans="1:32" hidden="1">
       <c r="A15" s="9" t="s">
         <v>71</v>
       </c>
@@ -5610,18 +5361,18 @@
         <f>IF(B6="M",3,4)</f>
         <v>3</v>
       </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
@@ -5637,26 +5388,26 @@
       <c r="AD15" s="7"/>
       <c r="AE15" s="7"/>
     </row>
-    <row r="16" spans="1:32" customHeight="1" ht="30.75">
+    <row r="16" spans="1:32" ht="30.75" customHeight="1">
       <c r="C16" s="9" t="s">
         <v>47</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="47" t="str">
+      <c r="F16" s="40"/>
+      <c r="G16" s="44" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+1," (schooljaar ",B7+1," - ",B7+2,")")</f>
         <v>NASK1 leerlaag M4 (schooljaar 2020 - 2021)</v>
       </c>
-      <c r="H16" s="52"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
@@ -5672,45 +5423,45 @@
       <c r="AD16" s="7"/>
       <c r="AE16" s="7"/>
     </row>
-    <row r="17" spans="1:32" customHeight="1" ht="34.5">
+    <row r="17" spans="3:32" ht="34.5" customHeight="1">
       <c r="D17" s="7" t="s">
         <v>49</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="48" t="s">
+      <c r="F17" s="40"/>
+      <c r="G17" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="53" t="s">
+      <c r="H17" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="48" t="s">
+      <c r="I17" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="48" t="s">
+      <c r="J17" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="K17" s="53" t="s">
+      <c r="K17" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="48" t="s">
+      <c r="L17" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="M17" s="48" t="s">
+      <c r="M17" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="N17" s="48" t="s">
+      <c r="N17" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="O17" s="48" t="s">
+      <c r="O17" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="P17" s="53" t="s">
+      <c r="P17" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="Q17" s="52"/>
+      <c r="Q17" s="47"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
@@ -5726,41 +5477,41 @@
       <c r="AD17" s="7"/>
       <c r="AE17" s="7"/>
     </row>
-    <row r="18" spans="1:32" customHeight="1" ht="72">
+    <row r="18" spans="3:32" ht="72" customHeight="1">
       <c r="D18" s="2">
         <v>200</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="49">
+      <c r="F18" s="40"/>
+      <c r="G18" s="46">
         <v>1</v>
       </c>
-      <c r="H18" s="54" t="s">
+      <c r="H18" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="I18" s="55">
+      <c r="I18" s="50">
         <v>2</v>
       </c>
-      <c r="J18" s="56" t="s">
+      <c r="J18" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="57"/>
-      <c r="L18" s="55">
+      <c r="K18" s="52"/>
+      <c r="L18" s="50">
         <v>100</v>
       </c>
-      <c r="M18" s="49" t="s">
+      <c r="M18" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="N18" s="58">
+      <c r="N18" s="53">
         <v>2</v>
       </c>
-      <c r="O18" s="60" t="s">
+      <c r="O18" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="P18" s="61" t="s">
+      <c r="P18" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="Q18" s="52"/>
+      <c r="Q18" s="47"/>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -5817,46 +5568,46 @@
         <f>IF(AND(ISBLANK($P18),$M18=instellingen!$I$3),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AF18" s="8">
+      <c r="AF18" s="29">
         <f>SUM(R18:AE18)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:32" customHeight="1" ht="72">
+    <row r="19" spans="3:32" ht="72" customHeight="1">
       <c r="D19" s="2">
         <v>201</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="49">
+      <c r="F19" s="40"/>
+      <c r="G19" s="46">
         <v>1</v>
       </c>
-      <c r="H19" s="54" t="s">
+      <c r="H19" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="55">
+      <c r="I19" s="50">
         <v>2</v>
       </c>
-      <c r="J19" s="56" t="s">
+      <c r="J19" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="K19" s="57"/>
-      <c r="L19" s="55">
+      <c r="K19" s="52"/>
+      <c r="L19" s="50">
         <v>100</v>
       </c>
-      <c r="M19" s="49" t="s">
+      <c r="M19" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="N19" s="58">
+      <c r="N19" s="53">
         <v>2</v>
       </c>
-      <c r="O19" s="60" t="s">
+      <c r="O19" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="P19" s="61" t="s">
+      <c r="P19" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="Q19" s="52"/>
+      <c r="Q19" s="47"/>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -5913,46 +5664,46 @@
         <f>IF(AND(ISBLANK($P19),$M19=instellingen!$I$3),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AF19" s="8">
+      <c r="AF19" s="29">
         <f>SUM(R19:AE19)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:32" customHeight="1" ht="72">
+    <row r="20" spans="3:32" ht="72" customHeight="1">
       <c r="D20" s="2">
         <v>202</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="49">
+      <c r="F20" s="40"/>
+      <c r="G20" s="46">
         <v>2</v>
       </c>
-      <c r="H20" s="54" t="s">
+      <c r="H20" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="I20" s="55">
+      <c r="I20" s="50">
         <v>2</v>
       </c>
-      <c r="J20" s="56" t="s">
+      <c r="J20" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="K20" s="57"/>
-      <c r="L20" s="55">
+      <c r="K20" s="52"/>
+      <c r="L20" s="50">
         <v>100</v>
       </c>
-      <c r="M20" s="49" t="s">
+      <c r="M20" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="N20" s="58">
+      <c r="N20" s="53">
         <v>2</v>
       </c>
-      <c r="O20" s="60" t="s">
+      <c r="O20" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="P20" s="61" t="s">
+      <c r="P20" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="Q20" s="52"/>
+      <c r="Q20" s="47"/>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -6009,46 +5760,46 @@
         <f>IF(AND(ISBLANK($P20),$M20=instellingen!$I$3),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AF20" s="8">
+      <c r="AF20" s="29">
         <f>SUM(R20:AE20)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:32" customHeight="1" ht="72">
+    <row r="21" spans="3:32" ht="72" customHeight="1">
       <c r="D21" s="2">
         <v>203</v>
       </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="49">
+      <c r="F21" s="40"/>
+      <c r="G21" s="46">
         <v>2</v>
       </c>
-      <c r="H21" s="54" t="s">
+      <c r="H21" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="I21" s="55">
+      <c r="I21" s="50">
         <v>2</v>
       </c>
-      <c r="J21" s="56" t="s">
+      <c r="J21" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="K21" s="57"/>
-      <c r="L21" s="55">
+      <c r="K21" s="52"/>
+      <c r="L21" s="50">
         <v>100</v>
       </c>
-      <c r="M21" s="49" t="s">
+      <c r="M21" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="58">
+      <c r="N21" s="53">
         <v>2</v>
       </c>
-      <c r="O21" s="60" t="s">
+      <c r="O21" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="P21" s="61" t="s">
+      <c r="P21" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="Q21" s="52"/>
+      <c r="Q21" s="47"/>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -6105,46 +5856,46 @@
         <f>IF(AND(ISBLANK($P21),$M21=instellingen!$I$3),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AF21" s="8">
+      <c r="AF21" s="29">
         <f>SUM(R21:AE21)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:32" customHeight="1" ht="72">
+    <row r="22" spans="3:32" ht="72" customHeight="1">
       <c r="D22" s="2">
         <v>204</v>
       </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="49">
+      <c r="F22" s="40"/>
+      <c r="G22" s="46">
         <v>3</v>
       </c>
-      <c r="H22" s="54" t="s">
+      <c r="H22" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="I22" s="55">
+      <c r="I22" s="50">
         <v>2</v>
       </c>
-      <c r="J22" s="56" t="s">
+      <c r="J22" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="K22" s="57"/>
-      <c r="L22" s="55">
+      <c r="K22" s="52"/>
+      <c r="L22" s="50">
         <v>100</v>
       </c>
-      <c r="M22" s="49" t="s">
+      <c r="M22" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="58">
+      <c r="N22" s="53">
         <v>2</v>
       </c>
-      <c r="O22" s="60" t="s">
+      <c r="O22" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="61" t="s">
+      <c r="P22" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="Q22" s="52"/>
+      <c r="Q22" s="47"/>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -6201,46 +5952,46 @@
         <f>IF(AND(ISBLANK($P22),$M22=instellingen!$I$3),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AF22" s="8">
+      <c r="AF22" s="29">
         <f>SUM(R22:AE22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:32" customHeight="1" ht="72">
+    <row r="23" spans="3:32" ht="72" customHeight="1">
       <c r="D23" s="2">
         <v>205</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="49">
+      <c r="F23" s="40"/>
+      <c r="G23" s="46">
         <v>3</v>
       </c>
-      <c r="H23" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="I23" s="55">
+      <c r="H23" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" s="50">
         <v>2</v>
       </c>
-      <c r="J23" s="56" t="s">
+      <c r="J23" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="57"/>
-      <c r="L23" s="55">
+      <c r="K23" s="52"/>
+      <c r="L23" s="50">
         <v>100</v>
       </c>
-      <c r="M23" s="49" t="s">
+      <c r="M23" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="N23" s="58">
+      <c r="N23" s="53">
         <v>2</v>
       </c>
-      <c r="O23" s="60" t="s">
+      <c r="O23" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="P23" s="61" t="s">
+      <c r="P23" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="Q23" s="52"/>
+      <c r="Q23" s="47"/>
       <c r="R23" s="7">
         <f>IF(OR(AND($G23&lt;&gt;instellingen!$G$2,ISBLANK($H23)),AND($G23=instellingen!$G$2,$H23&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -6297,24 +6048,24 @@
         <f>IF(AND(ISBLANK($P23),$M23=instellingen!$I$3),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AF23" s="8">
+      <c r="AF23" s="29">
         <f>SUM(R23:AE23)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:32">
-      <c r="F24" s="42"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
+    <row r="24" spans="3:32">
+      <c r="F24" s="40"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
@@ -6330,28 +6081,28 @@
       <c r="AD24" s="7"/>
       <c r="AE24" s="7"/>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="3:32">
       <c r="C25" s="9" t="s">
         <v>47</v>
       </c>
       <c r="D25" s="2">
         <v>122</v>
       </c>
-      <c r="F25" s="42"/>
-      <c r="G25" s="50" t="str">
+      <c r="F25" s="40"/>
+      <c r="G25" s="59" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  NASK1 leerlaag M4 (schooljaar 2020 - 2021)</v>
       </c>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
@@ -6367,21 +6118,21 @@
       <c r="AD25" s="7"/>
       <c r="AE25" s="7"/>
     </row>
-    <row r="26" spans="1:32" customHeight="1" ht="72">
-      <c r="F26" s="42"/>
-      <c r="G26" s="51" t="s">
+    <row r="26" spans="3:32" ht="72" customHeight="1">
+      <c r="F26" s="40"/>
+      <c r="G26" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="46"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
@@ -6397,19 +6148,19 @@
       <c r="AD26" s="7"/>
       <c r="AE26" s="7"/>
     </row>
-    <row r="27" spans="1:32">
-      <c r="F27" s="42"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
+    <row r="27" spans="3:32">
+      <c r="F27" s="40"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="47"/>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
@@ -6425,26 +6176,26 @@
       <c r="AD27" s="7"/>
       <c r="AE27" s="7"/>
     </row>
-    <row r="28" spans="1:32" customHeight="1" ht="30.75" hidden="true">
+    <row r="28" spans="3:32" ht="30.75" hidden="1" customHeight="1">
       <c r="C28" s="9" t="s">
         <v>47</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="47" t="str">
+      <c r="F28" s="40"/>
+      <c r="G28" s="44" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+2," (schooljaar ",B7+2," - ",B9,")")</f>
         <v>NASK1 leerlaag M5 (schooljaar 2021 - 2020)</v>
       </c>
-      <c r="H28" s="52"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="47"/>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
@@ -6460,45 +6211,45 @@
       <c r="AD28" s="7"/>
       <c r="AE28" s="7"/>
     </row>
-    <row r="29" spans="1:32" customHeight="1" ht="34.5" hidden="true">
+    <row r="29" spans="3:32" ht="34.5" hidden="1" customHeight="1">
       <c r="D29" s="7" t="s">
         <v>49</v>
       </c>
       <c r="E29" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="42"/>
-      <c r="G29" s="48" t="s">
+      <c r="F29" s="40"/>
+      <c r="G29" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H29" s="53" t="s">
+      <c r="H29" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="I29" s="48" t="s">
+      <c r="I29" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="J29" s="48" t="s">
+      <c r="J29" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="K29" s="53" t="s">
+      <c r="K29" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="L29" s="48" t="s">
+      <c r="L29" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="M29" s="48" t="s">
+      <c r="M29" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="N29" s="48" t="s">
+      <c r="N29" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="O29" s="48" t="s">
+      <c r="O29" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="P29" s="53" t="s">
+      <c r="P29" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="Q29" s="52"/>
+      <c r="Q29" s="47"/>
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
@@ -6514,29 +6265,29 @@
       <c r="AD29" s="7"/>
       <c r="AE29" s="7"/>
     </row>
-    <row r="30" spans="1:32" customHeight="1" ht="72" hidden="true">
+    <row r="30" spans="3:32" ht="72" hidden="1" customHeight="1">
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="54"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30" s="57"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="58"/>
-      <c r="O30" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="61"/>
-      <c r="Q30" s="52"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="49"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="52"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="53"/>
+      <c r="O30" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="56"/>
+      <c r="Q30" s="47"/>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -6593,34 +6344,34 @@
         <f>IF(AND(ISBLANK($P30),$M30=instellingen!$I$3),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AF30" s="8">
+      <c r="AF30" s="29">
         <f>SUM(R30:AE30)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:32" customHeight="1" ht="72" hidden="true">
+    <row r="31" spans="3:32" ht="72" hidden="1" customHeight="1">
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="54"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="57"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="58"/>
-      <c r="O31" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="61"/>
-      <c r="Q31" s="52"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="49"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="52"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="53"/>
+      <c r="O31" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="47"/>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -6677,34 +6428,34 @@
         <f>IF(AND(ISBLANK($P31),$M31=instellingen!$I$3),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AF31" s="8">
+      <c r="AF31" s="29">
         <f>SUM(R31:AE31)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:32" customHeight="1" ht="72" hidden="true">
+    <row r="32" spans="3:32" ht="72" hidden="1" customHeight="1">
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="54"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="57"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="58"/>
-      <c r="O32" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="61"/>
-      <c r="Q32" s="52"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="49"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="52"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="53"/>
+      <c r="O32" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="47"/>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -6761,34 +6512,34 @@
         <f>IF(AND(ISBLANK($P32),$M32=instellingen!$I$3),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AF32" s="8">
+      <c r="AF32" s="29">
         <f>SUM(R32:AE32)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:32" customHeight="1" ht="72" hidden="true">
+    <row r="33" spans="3:32" ht="72" hidden="1" customHeight="1">
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="54"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="57"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="58"/>
-      <c r="O33" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="61"/>
-      <c r="Q33" s="52"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="49"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="52"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="53"/>
+      <c r="O33" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="56"/>
+      <c r="Q33" s="47"/>
       <c r="R33" s="7">
         <f>IF(OR(AND($G33&lt;&gt;instellingen!$G$2,ISBLANK($H33)),AND($G33=instellingen!$G$2,$H33&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -6845,34 +6596,34 @@
         <f>IF(AND(ISBLANK($P33),$M33=instellingen!$I$3),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AF33" s="8">
+      <c r="AF33" s="29">
         <f>SUM(R33:AE33)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:32" customHeight="1" ht="72" hidden="true">
+    <row r="34" spans="3:32" ht="72" hidden="1" customHeight="1">
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="54"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="57"/>
-      <c r="L34" s="55"/>
-      <c r="M34" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" s="58"/>
-      <c r="O34" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P34" s="61"/>
-      <c r="Q34" s="52"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="49"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="52"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="53"/>
+      <c r="O34" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="56"/>
+      <c r="Q34" s="47"/>
       <c r="R34" s="7">
         <f>IF(OR(AND($G34&lt;&gt;instellingen!$G$2,ISBLANK($H34)),AND($G34=instellingen!$G$2,$H34&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -6929,34 +6680,34 @@
         <f>IF(AND(ISBLANK($P34),$M34=instellingen!$I$3),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AF34" s="8">
+      <c r="AF34" s="29">
         <f>SUM(R34:AE34)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:32" customHeight="1" ht="72" hidden="true">
+    <row r="35" spans="3:32" ht="72" hidden="1" customHeight="1">
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="54"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="57"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="58"/>
-      <c r="O35" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="61"/>
-      <c r="Q35" s="52"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="49"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="52"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="53"/>
+      <c r="O35" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="56"/>
+      <c r="Q35" s="47"/>
       <c r="R35" s="7">
         <f>IF(OR(AND($G35&lt;&gt;instellingen!$G$2,ISBLANK($H35)),AND($G35=instellingen!$G$2,$H35&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -7013,63 +6764,63 @@
         <f>IF(AND(ISBLANK($P35),$M35=instellingen!$I$3),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AF35" s="8">
+      <c r="AF35" s="29">
         <f>SUM(R35:AE35)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:32" hidden="true">
-      <c r="F36" s="42"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="46"/>
-      <c r="P36" s="52"/>
-      <c r="Q36" s="52"/>
-    </row>
-    <row r="37" spans="1:32" hidden="true">
+    <row r="36" spans="3:32" hidden="1">
+      <c r="F36" s="40"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="47"/>
+      <c r="Q36" s="47"/>
+    </row>
+    <row r="37" spans="3:32" hidden="1">
       <c r="C37" s="9" t="s">
         <v>47</v>
       </c>
       <c r="D37" s="2"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="50" t="str">
+      <c r="F37" s="40"/>
+      <c r="G37" s="59" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  NASK1 leerlaag M5 (schooljaar 2021 - 2020)</v>
       </c>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="46"/>
-      <c r="O37" s="46"/>
-      <c r="P37" s="52"/>
-      <c r="Q37" s="52"/>
-    </row>
-    <row r="38" spans="1:32" customHeight="1" ht="72" hidden="true">
-      <c r="F38" s="42"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="51"/>
-      <c r="N38" s="46"/>
-      <c r="O38" s="46"/>
-      <c r="P38" s="52"/>
-      <c r="Q38" s="52"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="59"/>
+      <c r="M37" s="59"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="47"/>
+      <c r="Q37" s="47"/>
+    </row>
+    <row r="38" spans="3:32" ht="72" hidden="1" customHeight="1">
+      <c r="F38" s="40"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="60"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="47"/>
+      <c r="Q38" s="47"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="cNb6knNTpaV7D1mf7Iu/lgYj9kXwfXjOtkhAQEWDHFVwb8oqXWtXWieJjx8ezWiH4NKu/Y6gcKPG2XrRP9UI3Q==" saltValue="htMrYuTnwu2LK4yRq/X2Wg==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
+  <sheetProtection algorithmName="SHA-512" hashValue="cNb6knNTpaV7D1mf7Iu/lgYj9kXwfXjOtkhAQEWDHFVwb8oqXWtXWieJjx8ezWiH4NKu/Y6gcKPG2XrRP9UI3Q==" saltValue="htMrYuTnwu2LK4yRq/X2Wg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="7">
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
     <mergeCell ref="G14:M14"/>
@@ -7079,139 +6830,324 @@
     <mergeCell ref="G26:M26"/>
   </mergeCells>
   <conditionalFormatting sqref="J6:J11">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>ISBLANK($J6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:J23">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>ISBLANK($J18)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30:J35">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>ISBLANK($J30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:M11">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>ISBLANK($M6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M18:M23">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>ISBLANK($M18)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M30:M35">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>ISBLANK($M30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:O11">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>ISBLANK($O6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O18:O23">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="2" priority="8">
       <formula>ISBLANK($O18)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O30:O35">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="1" priority="9">
       <formula>ISBLANK($O30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6:AE35">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="21">
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="I6:I11">
+  <dataValidations count="1">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I11 N30:N35 N18:N23 N6:N11 L30:L35 L18:L23 L6:L11 I30:I35 I18:I23" xr:uid="{00000000-0002-0000-0300-000003000000}">
       <formula1>0</formula1>
       <formula2>300</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="I18:I23">
-      <formula1>0</formula1>
-      <formula2>300</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="I30:I35">
-      <formula1>0</formula1>
-      <formula2>300</formula2>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="L6:L11">
-      <formula1>0</formula1>
-      <formula2>300</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="L18:L23">
-      <formula1>0</formula1>
-      <formula2>300</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="L30:L35">
-      <formula1>0</formula1>
-      <formula2>300</formula2>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="N6:N11">
-      <formula1>0</formula1>
-      <formula2>300</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="N18:N23">
-      <formula1>0</formula1>
-      <formula2>300</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="N30:N35">
-      <formula1>0</formula1>
-      <formula2>300</formula2>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
   </dataValidations>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" xr:uid="{00000000-0002-0000-0300-000000000000}">
+          <x14:formula1>
+            <xm:f>instellingen!$G$2:$G$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>G6:G11 G30:G35 G18:G23</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" xr:uid="{00000000-0002-0000-0300-000006000000}">
+          <x14:formula1>
+            <xm:f>instellingen!$H$2:$H$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>J6:J11 J30:J35 J18:J23</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" xr:uid="{00000000-0002-0000-0300-00000C000000}">
+          <x14:formula1>
+            <xm:f>instellingen!$I$2:$I$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>M6:M11 O30:O35 O18:O23 O6:O11 M30:M35 M18:M23</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016E4FC6D1D8BEB4897925B804975E464" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2f4c844f49b69eee736f813a22d8de94">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="712ff825-c25b-4fa7-980d-494c05af82bb" xmlns:ns3="c6d635e9-0601-4b5e-ad25-fb7c8926c588" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f46293e76f6d1b28acbb6f6ff8d92fe2" ns2:_="" ns3:_="">
+    <xsd:import namespace="712ff825-c25b-4fa7-980d-494c05af82bb"/>
+    <xsd:import namespace="c6d635e9-0601-4b5e-ad25-fb7c8926c588"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="712ff825-c25b-4fa7-980d-494c05af82bb" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="14" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c6d635e9-0601-4b5e-ad25-fb7c8926c588" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3498B26-BF9A-4762-BF4A-64E338C8DF06}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE122A29-1B29-42C0-85C7-8513789A537D}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20A87005-3001-4A2A-9DA8-1405E7CC6869}"/>
 </file>